--- a/updated_scripts/training_interpretation/data/glmm/selected_glmm_abundance_obscot_reduced_vars.xlsx
+++ b/updated_scripts/training_interpretation/data/glmm/selected_glmm_abundance_obscot_reduced_vars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c73ee685cf225dcc/Desktop/uni/M2 stage/Cullicoides_data/CIRAD/culicoides_ml/updated_scripts/data/glmm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibalt\OneDrive\Desktop\uni\M2 stage\Cullicoides_data\CIRAD\culicoides_ml\updated_scripts\training_interpretation\data\glmm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{E9D6A388-52AF-4927-8710-E518D447BDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F73747F-E00F-4D17-B4E4-3D0B7BEBBF70}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1B6620-9A72-4821-BF83-7FC273CBEFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-17010" yWindow="-8880" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{AB41D8AC-2232-4A5D-8530-A862FA926A89}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AB41D8AC-2232-4A5D-8530-A862FA926A89}"/>
   </bookViews>
   <sheets>
     <sheet name="glmm abundance output" sheetId="2" r:id="rId1"/>
@@ -1122,11 +1122,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>595746</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581033</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>21841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2B8867-768C-8F0A-9F9B-FA7CB6542D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2424546" y="3200400"/>
+          <a:ext cx="6081287" cy="5106459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3218,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B188DB0-2783-4F22-9846-2314CCC078FA}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
